--- a/characterlist.xlsx
+++ b/characterlist.xlsx
@@ -8,18 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvarodelser/Projects/amigasalbordedeunataquedenervios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1B6940-D3C4-CC43-ADA8-EF12681E44FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E15C3934-22D8-E44E-A624-F0F0830A1556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="7920" windowWidth="28040" windowHeight="17440" xr2:uid="{B91BE4CE-BC55-404F-A7BA-7F3311164753}"/>
+    <workbookView xWindow="19280" yWindow="660" windowWidth="18980" windowHeight="19000" activeTab="1" xr2:uid="{0BD73243-3877-524E-8073-B186175C154F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="characterlist" sheetId="1" r:id="rId1"/>
+    <sheet name="fraselist" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +34,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="137">
+  <si>
+    <t>file</t>
+  </si>
   <si>
     <t>name</t>
   </si>
@@ -56,67 +57,166 @@
     <t>image</t>
   </si>
   <si>
-    <t>file</t>
-  </si>
-  <si>
     <t>frase</t>
   </si>
   <si>
+    <t>alba</t>
+  </si>
+  <si>
+    <t>#6C9DA0</t>
+  </si>
+  <si>
+    <t>alejandro</t>
+  </si>
+  <si>
+    <t>#BA2362</t>
+  </si>
+  <si>
+    <t>alvaro</t>
+  </si>
+  <si>
+    <t>Alvaro del Ser</t>
+  </si>
+  <si>
+    <t>#BA5923</t>
+  </si>
+  <si>
+    <t>ana</t>
+  </si>
+  <si>
+    <t>Ana Yruela</t>
+  </si>
+  <si>
+    <t>andrea</t>
+  </si>
+  <si>
+    <t>angie</t>
+  </si>
+  <si>
+    <t>#EDCC4F</t>
+  </si>
+  <si>
+    <t>anita</t>
+  </si>
+  <si>
+    <t>caceres</t>
+  </si>
+  <si>
+    <t>Javier Cáceres</t>
+  </si>
+  <si>
+    <t>candela</t>
+  </si>
+  <si>
+    <t>Candela Valverde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candela Sastre </t>
+  </si>
+  <si>
+    <t>carlosb</t>
+  </si>
+  <si>
+    <t>Carlos Belda</t>
+  </si>
+  <si>
+    <t>carlosc</t>
+  </si>
+  <si>
+    <t>#761212</t>
+  </si>
+  <si>
+    <t>carlota</t>
+  </si>
+  <si>
+    <t>Carlota Montiel</t>
+  </si>
+  <si>
+    <t>Carlota Cruz</t>
+  </si>
+  <si>
+    <t>carlotag</t>
+  </si>
+  <si>
+    <t>Carlota G Serrano</t>
+  </si>
+  <si>
+    <t>carmen</t>
+  </si>
+  <si>
+    <t>celia</t>
+  </si>
+  <si>
+    <t>ceskary</t>
+  </si>
+  <si>
+    <t>clara</t>
+  </si>
+  <si>
+    <t>dani</t>
+  </si>
+  <si>
+    <t>esther</t>
+  </si>
+  <si>
+    <t>Esther Geijo</t>
+  </si>
+  <si>
+    <t>guillee</t>
+  </si>
+  <si>
+    <t>guillev</t>
+  </si>
+  <si>
+    <t>Guille Vance</t>
+  </si>
+  <si>
+    <t>henar</t>
+  </si>
+  <si>
+    <t>irene</t>
+  </si>
+  <si>
+    <t>Irene Zulaica</t>
+  </si>
+  <si>
+    <t>jorge</t>
+  </si>
+  <si>
     <t>juanma</t>
   </si>
   <si>
-    <t>alba</t>
-  </si>
-  <si>
-    <t>alejandro</t>
-  </si>
-  <si>
-    <t>alvaro</t>
-  </si>
-  <si>
-    <t>andrea</t>
-  </si>
-  <si>
-    <t>anita</t>
-  </si>
-  <si>
-    <t>candela</t>
-  </si>
-  <si>
-    <t>carlosb</t>
-  </si>
-  <si>
-    <t>carlosc</t>
-  </si>
-  <si>
-    <t>carlota</t>
-  </si>
-  <si>
-    <t>carmen</t>
-  </si>
-  <si>
-    <t>celia</t>
-  </si>
-  <si>
-    <t>clara</t>
-  </si>
-  <si>
-    <t>esther</t>
-  </si>
-  <si>
-    <t>guille</t>
-  </si>
-  <si>
-    <t>henar</t>
-  </si>
-  <si>
-    <t>irene</t>
+    <t>lander</t>
   </si>
   <si>
     <t>lena</t>
   </si>
   <si>
-    <t>manu</t>
+    <t xml:space="preserve">Lena Calvo </t>
+  </si>
+  <si>
+    <t>manub</t>
+  </si>
+  <si>
+    <t>manur</t>
+  </si>
+  <si>
+    <t>maria</t>
+  </si>
+  <si>
+    <t>martam</t>
+  </si>
+  <si>
+    <t>Marta Monsalvete</t>
+  </si>
+  <si>
+    <t>martap</t>
+  </si>
+  <si>
+    <t>Marta Puchol</t>
+  </si>
+  <si>
+    <t>mateo</t>
   </si>
   <si>
     <t>nagore</t>
@@ -125,17 +225,275 @@
     <t>nati</t>
   </si>
   <si>
+    <t>Nati Montiel</t>
+  </si>
+  <si>
+    <t>Natalia Cruz</t>
+  </si>
+  <si>
     <t>pablo</t>
   </si>
   <si>
+    <t>patri</t>
+  </si>
+  <si>
+    <t>Patricia Cacharrón</t>
+  </si>
+  <si>
     <t>roberto</t>
+  </si>
+  <si>
+    <t>Roberto Borrega</t>
+  </si>
+  <si>
+    <t>permalink</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>coord</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>anay</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>yo no veo aquí ambiente mortuorio</t>
+  </si>
+  <si>
+    <t>No aprende, ella no aprende. Ella no, ella no es profesora como otras.</t>
+  </si>
+  <si>
+    <t>Para las cosas malas las dos juntas, para las buenas tú sola</t>
+  </si>
+  <si>
+    <t>¿Hasta el moño de que solo te cuenten dramas y no te tengan en cuenta para las juergas?</t>
+  </si>
+  <si>
+    <t>¡Aplaudid un poquito, coño!</t>
+  </si>
+  <si>
+    <t>Me vais a tocar el fandango, tú y tu tía</t>
+  </si>
+  <si>
+    <t>¿Existe alguna posibilidad, por pequeña que sea, de salvar lo nuestro?</t>
+  </si>
+  <si>
+    <t>Excepto beber, qué difícil se me resulta todo.</t>
+  </si>
+  <si>
+    <t>Si todos los hombres fueran como tú, hasta yo me haría lesbiana. </t>
+  </si>
+  <si>
+    <t>Ya me gustaría a mí mentir, pero eso es lo malo de las testigas, que no podemos.</t>
+  </si>
+  <si>
+    <t>Yo lo único que tengo de verdad son los sentimientos y los litros de silicona que me pesan como quintales.</t>
+  </si>
+  <si>
+    <t>1. Bastante es que soy modelo.</t>
+  </si>
+  <si>
+    <r>
+      <t>2. Qué </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>heavy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> eres, Juana.</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Paso total de vosotras, me aburrís.</t>
+  </si>
+  <si>
+    <t>4. Riégueme, riégueme.</t>
+  </si>
+  <si>
+    <t>5. Yo soy testiga de Jehová y mi religión me prohíbe mentir.</t>
+  </si>
+  <si>
+    <t>6. Soy fans, así, en plural.</t>
+  </si>
+  <si>
+    <t>7. Dos cabalgan juntas, dos por la carretera.</t>
+  </si>
+  <si>
+    <t>8. Agustina tiene cáncer. Tienes cáncer, Agustina. Venga, un fuerte aplauso para Agustina.</t>
+  </si>
+  <si>
+    <t>9. Una es más auténtica cuanto más se parece a lo que ha soñado de sí misma.</t>
+  </si>
+  <si>
+    <t>10. Cállate, cara de ladilla.</t>
+  </si>
+  <si>
+    <t>11. Mire, señora: vaya al médico, dígale que es drogadicta y que le extienda una receta.</t>
+  </si>
+  <si>
+    <t>12. Perdularia, que eres una perdularia, que lo pierdes todo.</t>
+  </si>
+  <si>
+    <t>13. No me chilles, que se me sube el azúcar.</t>
+  </si>
+  <si>
+    <t>14. ¿Me remonto?</t>
+  </si>
+  <si>
+    <t>15. Qué pena, hija mía, tan joven y ya estás como vaca sin cencerro.</t>
+  </si>
+  <si>
+    <t>16. Aquí no veo yo ambiente mortuorio.</t>
+  </si>
+  <si>
+    <t>17. No labio.</t>
+  </si>
+  <si>
+    <t>18. Viva la pestaña.</t>
+  </si>
+  <si>
+    <t>19. ¿Existe alguna posibilidad, por pequeña que sea, de salvar lo nuestro?</t>
+  </si>
+  <si>
+    <t>20. Soy auténtica, señora.</t>
+  </si>
+  <si>
+    <t>21. Qué pico tiene la Pepa.</t>
+  </si>
+  <si>
+    <t>22. Me lo estaba figurando, me lo estaba figurando.</t>
+  </si>
+  <si>
+    <t>23. No me digas “pesá”, que estoy muy sensible.</t>
+  </si>
+  <si>
+    <t>24. Empecé a fumar por culpa de Bette Davis.</t>
+  </si>
+  <si>
+    <t>25. No aprende, ella no aprende. Ella no, ella no es profesora como otras.</t>
+  </si>
+  <si>
+    <t>26. Cómo has estao, cómo has estao, cómo has estao.</t>
+  </si>
+  <si>
+    <t>27. Para las cosas malas las dos juntas, pero para las buenas tú sola.</t>
+  </si>
+  <si>
+    <t>28. Hagas lo que hagas, ponte bragas.</t>
+  </si>
+  <si>
+    <r>
+      <t>29. Qué</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> overdose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>30. Excepto beber, qué difícil se me hace todo.</t>
+  </si>
+  <si>
+    <t>31. No hay nada como un Chanel para sentirse respetable.</t>
+  </si>
+  <si>
+    <t>32. Yo sólo hago vivo.</t>
+  </si>
+  <si>
+    <t>33. Qué síndrome.</t>
+  </si>
+  <si>
+    <t>34. En mi situación me interesa más trabajar que ser moderna.</t>
+  </si>
+  <si>
+    <t>35. Oye, bonita, tengo que colgarte. Ha venido un sádico asesino que está destrozándome viva.</t>
+  </si>
+  <si>
+    <t>36. Me vais a tocar el fandango tú y tu tía.</t>
+  </si>
+  <si>
+    <t>37. Que estáis locas, como no pisáis la calle os pensáis que en la calle pasan cosas.</t>
+  </si>
+  <si>
+    <t>38. Me voy a quitar las bragas, se me notan mucho.</t>
+  </si>
+  <si>
+    <t>39. Por lo menos no te han violado.</t>
+  </si>
+  <si>
+    <t>40. Soy Vicente.</t>
+  </si>
+  <si>
+    <t>41. Ya me gustaría a mí mentir, pero eso es lo malo de las testigas, que no podemos.</t>
+  </si>
+  <si>
+    <t>42. Es que no estoy curada.</t>
+  </si>
+  <si>
+    <t>43. Me fuerza y no me gusta. Lo que pasa es que una acaba acostumbrándose a todo.</t>
+  </si>
+  <si>
+    <t>44. Lo peor no es que te violen, es que se lo tienes que contar de pe a pa a todo el mundo.</t>
+  </si>
+  <si>
+    <t>45. Lo que me preocupa es que esta ciudad no me reconozca a mí.</t>
+  </si>
+  <si>
+    <t>46. ¿Para qué voy a salir? ¿Para que me mate un “squinjed” o me atropelle un coche?</t>
+  </si>
+  <si>
+    <t>47. Yo lo único que tengo de verdad son los sentimientos y los litros de silicona que me pesan como quintales.</t>
+  </si>
+  <si>
+    <t>48. Es muy triste cómo están los “masa-media” en este país.</t>
+  </si>
+  <si>
+    <t>49. ¿Yo? Yo no sé nada. Yo sólo miro los labios.</t>
+  </si>
+  <si>
+    <t>50. Aplaudid un poquito, ****.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,16 +501,348 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF525252"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -160,15 +850,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -181,6 +1065,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2052" name="AutoShape 4" descr="pinterest">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49716C45-D506-4A58-79E2-EF40977C3E0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13017500" y="13309600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,21 +1437,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CFE480-1CED-BE4D-B354-0C0B234FA656}">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B092E2C-9EFA-6649-9689-69F050D342BC}">
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F35:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -531,129 +1469,1183 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(,,"amigasalbordedeunataquedenervios/reparto/",A2,"/")</f>
+        <v>amigasalbordedeunataquedenervios/reparto/alba/</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="str">
+      <c r="H2" s="1" t="str">
         <f>_xlfn.TEXTJOIN(,,"/assets/portraits/",A2,".png")</f>
         <v>/assets/portraits/alba.png</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="str">
+        <f t="shared" ref="B3:B40" si="0">_xlfn.TEXTJOIN(,,"amigasalbordedeunataquedenervios/reparto/",A3,"/")</f>
+        <v>amigasalbordedeunataquedenervios/reparto/alejandro/</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f t="shared" ref="H3:H40" si="1">_xlfn.TEXTJOIN(,,"/assets/portraits/",A3,".png")</f>
+        <v>/assets/portraits/alejandro.png</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/alvaro/</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/alvaro.png</v>
+      </c>
+      <c r="J4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/anay/</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/anay.png</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/andrea/</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/andrea.png</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/angie/</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/angie.png</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/anita/</v>
+      </c>
+      <c r="G8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/anita.png</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/caceres/</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/caceres.png</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/candela/</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/candela.png</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/carlosb/</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/carlosb.png</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/carlosc/</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/carlosc.png</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/carlota/</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/carlota.png</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/carlotag/</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/carlotag.png</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/carmen/</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/carmen.png</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/celia/</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/celia.png</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/ceskary/</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/ceskary.png</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/clara/</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/clara.png</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/dani/</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/dani.png</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/esther/</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/esther.png</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/guillee/</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/guillee.png</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/guillev/</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/guillev.png</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/henar/</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/henar.png</v>
+      </c>
+      <c r="J23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/irene/</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/irene.png</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/jorge/</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/jorge.png</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/juanma/</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/juanma.png</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/lander/</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/lander.png</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/lena/</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/lena.png</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/manub/</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/manub.png</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/manur/</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/manur.png</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/maria/</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/maria.png</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/martam/</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/martam.png</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/martap/</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/martap.png</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/mateo/</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/mateo.png</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/nagore/</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/nagore.png</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/nati/</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/nati.png</v>
+      </c>
+      <c r="J36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/pablo/</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/pablo.png</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/patri/</v>
+      </c>
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/patri.png</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/roberto/</v>
+      </c>
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/roberto.png</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>23</v>
+      <c r="B40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>amigasalbordedeunataquedenervios/reparto/ana/</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>/assets/portraits/ana.png</v>
+      </c>
+      <c r="J40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF03B18-5664-1345-8DE3-51059DF2F1E9}">
+  <dimension ref="A1:A154"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>24</v>
+      <c r="A17" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>8</v>
+      <c r="A18" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>25</v>
+      <c r="A19" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>26</v>
+      <c r="A20" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>27</v>
+      <c r="A21" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>28</v>
+      <c r="A22" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>29</v>
+      <c r="A23" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
+      <c r="A24" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="4"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="5"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="3"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="3"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="3"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="3"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="3"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="3"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="3"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="3"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="3"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="3"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="3"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="3"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="3"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="3"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="3"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="3"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="3"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="3"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="3"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="3"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="3"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="3"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="3"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="3"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="3"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="3"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="3"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="3"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="3"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="3"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="3"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="3"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="3"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="3"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="3"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="3"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="3"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="3"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="3"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="3"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="3"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>